--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 11C/PRUEBA_TEMPERATURA_23_11C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 11C/PRUEBA_TEMPERATURA_23_11C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Datos crudos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,121 +73,112 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-11 05:17:33</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:18:34</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:19:35</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:20:37</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:21:38</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:22:40</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:23:41</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:24:43</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:25:44</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:26:46</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:27:47</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:28:48</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:29:50</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:30:51</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:31:53</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:32:54</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:33:56</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:34:57</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:35:59</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:37:00</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:38:01</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:39:03</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:40:04</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:41:06</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:42:07</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:43:09</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:44:10</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:45:12</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:46:13</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:47:14</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:48:16</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:49:17</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:50:19</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:51:20</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:52:22</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:53:23</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:54:25</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:55:26</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:56:27</t>
+    <t>2023-12-10 07:13:04</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:14:06</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:15:08</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:16:11</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:17:13</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:18:16</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:19:18</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:20:20</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:21:23</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:22:25</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:23:28</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:24:30</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:25:32</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:26:35</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:27:37</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:28:40</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:29:42</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:30:44</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:31:47</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:32:49</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:33:52</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:34:54</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:35:56</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:36:59</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:38:01</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:39:04</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:40:06</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:41:08</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:42:11</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:43:13</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:44:16</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:45:18</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:46:20</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:47:23</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:48:25</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:49:28</t>
   </si>
 </sst>
 </file>
@@ -854,126 +845,117 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$40</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>23.0506993006993</c:v>
+                  <c:v>29.213286713286699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.2972027972028</c:v>
+                  <c:v>26.1975524475524</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>22.6573426573426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.346153846153801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.5594405594405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.9038461538461</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.592657342657301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.592657342657301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.199300699300601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.805944055944</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.019230769230699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.494755244755201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.756993006993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.363636363636299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.232517482517402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.9702797202797</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9702797202797</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.7080419580419</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.7080419580419</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.4458041958042</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.7080419580419</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.839160839160799</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.4458041958042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.1835664335664</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.4458041958042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.314685314685301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.576923076923</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.314685314685301</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.1835664335664</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.4458041958042</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.4458041958042</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.314685314685301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.576923076923</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.314685314685301</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.756993006993</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>19.379370629370602</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.674825174825099</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.363636363636299</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.921328671328601</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.921328671328601</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.3968531468531</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.134615384615399</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.0034965034965</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.6101398601398</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.8723776223776</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.6101398601398</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13.479020979021</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13.741258741258701</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13.479020979021</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.479020979021</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.3479020979021</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.479020979021</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.3479020979021</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.216783216783201</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13.3479020979021</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13.479020979021</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13.3479020979021</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13.085664335664299</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13.479020979021</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13.216783216783201</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13.085664335664299</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13.3479020979021</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13.3479020979021</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13.216783216783201</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13.479020979021</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>16.494755244755201</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>18.4615384615384</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>19.2482517482517</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>19.9038461538461</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>20.428321678321701</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>21.346153846153801</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>21.608391608391599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1230,37 +1212,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13.3479020979021</c:v>
+                  <c:v>15.1835664335664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.479020979021</c:v>
+                  <c:v>15.4458041958042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.3479020979021</c:v>
+                  <c:v>15.314685314685301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.085664335664299</c:v>
+                  <c:v>15.576923076923</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.479020979021</c:v>
+                  <c:v>15.314685314685301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.216783216783201</c:v>
+                  <c:v>15.1835664335664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.085664335664299</c:v>
+                  <c:v>15.4458041958042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.3479020979021</c:v>
+                  <c:v>15.4458041958042</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.3479020979021</c:v>
+                  <c:v>15.314685314685301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.216783216783201</c:v>
+                  <c:v>15.576923076923</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.479020979021</c:v>
+                  <c:v>15.314685314685301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1357,10 +1339,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13.312142403051491</c:v>
+                  <c:v>15.374284806102965</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.312142403051491</c:v>
+                  <c:v>15.374284806102965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3082,10 +3064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3131,17 +3113,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.0506993006993</v>
+        <v>29.213286713286699</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>4.2592592581058852E-3</v>
+        <v>1.3715277775190771E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3158,14 +3140,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>20.2972027972028</v>
+        <v>26.1975524475524</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
-        <f>COUNT(E:E)-7</f>
-        <v>32</v>
+        <f>COUNT(E:E)-2</f>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3182,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>19.379370629370602</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3199,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17.674825174825099</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3216,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.363636363636299</v>
+        <v>20.5594405594405</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3233,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.921328671328601</v>
+        <v>19.9038461538461</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3250,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>14.921328671328601</v>
+        <v>18.592657342657301</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3267,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.3968531468531</v>
+        <v>18.592657342657301</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3284,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.134615384615399</v>
+        <v>18.199300699300601</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3301,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.0034965034965</v>
+        <v>17.805944055944</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3318,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.6101398601398</v>
+        <v>17.019230769230699</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3335,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.8723776223776</v>
+        <v>16.494755244755201</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3352,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.6101398601398</v>
+        <v>16.756993006993</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3369,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.479020979021</v>
+        <v>16.363636363636299</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3386,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.741258741258701</v>
+        <v>16.232517482517402</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3403,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.479020979021</v>
+        <v>15.9702797202797</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3420,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.479020979021</v>
+        <v>15.9702797202797</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3437,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.3479020979021</v>
+        <v>15.7080419580419</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3454,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.479020979021</v>
+        <v>15.7080419580419</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3471,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.3479020979021</v>
+        <v>15.4458041958042</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3488,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.216783216783201</v>
+        <v>15.7080419580419</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3505,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.3479020979021</v>
+        <v>15.839160839160799</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3522,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.479020979021</v>
+        <v>15.4458041958042</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3539,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.3479020979021</v>
+        <v>15.1835664335664</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3556,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>13.085664335664299</v>
+        <v>15.4458041958042</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3573,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>13.479020979021</v>
+        <v>15.314685314685301</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3590,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>13.216783216783201</v>
+        <v>15.576923076923</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3607,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>13.085664335664299</v>
+        <v>15.314685314685301</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3624,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>13.3479020979021</v>
+        <v>15.1835664335664</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3641,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>13.3479020979021</v>
+        <v>15.4458041958042</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3658,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>13.216783216783201</v>
+        <v>15.4458041958042</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3675,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>13.479020979021</v>
+        <v>15.314685314685301</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3692,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>16.494755244755201</v>
+        <v>15.576923076923</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3709,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>18.4615384615384</v>
+        <v>15.314685314685301</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3726,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>19.2482517482517</v>
+        <v>16.756993006993</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3743,58 +3725,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>19.9038461538461</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>23</v>
-      </c>
-      <c r="B38">
-        <v>11</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>20.428321678321701</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>23</v>
-      </c>
-      <c r="B39">
-        <v>11</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>21.346153846153801</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>23</v>
-      </c>
-      <c r="B40">
-        <v>11</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>21.608391608391599</v>
+        <v>19.379370629370602</v>
       </c>
     </row>
   </sheetData>
@@ -3807,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3833,45 +3764,45 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:39:03</v>
+        <v>2023-12-10 07:36:59</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>13.3479020979021</v>
+        <v>15.1835664335664</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>13.312142403051491</v>
+        <v>15.374284806102965</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:40:04</v>
+        <v>2023-12-10 07:38:01</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>13.479020979021</v>
+        <v>15.4458041958042</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>13.312142403051491</v>
+        <v>15.374284806102965</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:41:06</v>
+        <v>2023-12-10 07:39:04</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>13.3479020979021</v>
+        <v>15.314685314685301</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3880,35 +3811,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:42:07</v>
+        <v>2023-12-10 07:40:06</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>13.085664335664299</v>
+        <v>15.576923076923</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.14471757988663417</v>
+        <v>0.135803166261523</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:43:09</v>
+        <v>2023-12-10 07:41:08</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>13.479020979021</v>
+        <v>15.314685314685301</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:44:10</v>
+        <v>2023-12-10 07:42:11</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>13.216783216783201</v>
+        <v>15.1835664335664</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -3917,36 +3848,36 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:45:12</v>
+        <v>2023-12-10 07:43:13</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>13.085664335664299</v>
+        <v>15.4458041958042</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>13.479020979021</v>
+        <v>15.576923076923</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:46:13</v>
+        <v>2023-12-10 07:44:16</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>13.3479020979021</v>
+        <v>15.4458041958042</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:47:14</v>
+        <v>2023-12-10 07:45:18</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>13.3479020979021</v>
+        <v>15.314685314685301</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3955,25 +3886,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:48:16</v>
+        <v>2023-12-10 07:46:20</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>13.216783216783201</v>
+        <v>15.576923076923</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>13.085664335664299</v>
+        <v>15.1835664335664</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:49:17</v>
+        <v>2023-12-10 07:47:23</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>13.479020979021</v>
+        <v>15.314685314685301</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
